--- a/Assets/Excel/PlayerIdInfo.xlsx
+++ b/Assets/Excel/PlayerIdInfo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\MStudio3DRPG\Assets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8BB77A-4CC9-4188-A578-B970D366999C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8E69E4-4DD2-4D37-9DBA-59E1ABCF01D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="1872" windowWidth="14892" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11604" yWindow="3684" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
   </si>
   <si>
     <t>player</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -414,7 +415,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
